--- a/rotulos_colunas/rotulos_colunas_todas_bases.xlsx
+++ b/rotulos_colunas/rotulos_colunas_todas_bases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/Meu Drive/Doutorado/Disciplinas/Estatística/Projeto/projeto-enade-estatistica-1/rotulos_colunas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FE05B8-0DE8-344D-A794-AD220E4DA19E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42347C53-AF19-1744-88D3-8B7F4C6563CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="1100" windowWidth="35500" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="1920" windowWidth="35500" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="504">
   <si>
     <t>NU_ANO</t>
   </si>
@@ -1513,10 +1513,25 @@
     <t>PESSOA_CONCLUSAO_2G_EM</t>
   </si>
   <si>
-    <t>QUESTIONARIO_SOCIO_EST_CIVIL</t>
-  </si>
-  <si>
-    <t>QUESTIONARIO_SOCIO_RENDA</t>
+    <t>SITUACAO_TRABALHO</t>
+  </si>
+  <si>
+    <t>CH_TRABALHO</t>
+  </si>
+  <si>
+    <t>ENSINO_MEDIO</t>
+  </si>
+  <si>
+    <t>TIPO_EM</t>
+  </si>
+  <si>
+    <t>HORAS_ESTUDO</t>
+  </si>
+  <si>
+    <t>RENDA</t>
+  </si>
+  <si>
+    <t>EST_CIVIL</t>
   </si>
 </sst>
 </file>
@@ -1967,19 +1982,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K222"/>
+  <dimension ref="A1:K228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E62" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <selection activeCell="J72" sqref="J72"/>
+    <sheetView tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="E60" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="J72" sqref="J72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="45.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="39.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.1640625" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
     <col min="7" max="7" width="12.5" customWidth="1"/>
     <col min="8" max="8" width="39.5" bestFit="1" customWidth="1"/>
@@ -4456,8 +4474,8 @@
         <v>159</v>
       </c>
       <c r="F63" t="str">
-        <f>D86</f>
-        <v>QUESTIONARIO_SOCIO_EST_CIVIL</v>
+        <f>A228</f>
+        <v>EST_CIVIL</v>
       </c>
       <c r="G63" t="s">
         <v>61</v>
@@ -4616,8 +4634,8 @@
         <v>163</v>
       </c>
       <c r="F67" t="str">
-        <f>D91</f>
-        <v>QUESTIONARIO_SOCIO_RENDA</v>
+        <f>A222</f>
+        <v>RENDA</v>
       </c>
       <c r="G67" t="s">
         <v>65</v>
@@ -4656,8 +4674,8 @@
         <v>164</v>
       </c>
       <c r="F68" t="str">
-        <f t="shared" si="29"/>
-        <v>QUESTIONARIO_SOCIO_Q6</v>
+        <f>A223</f>
+        <v>SITUACAO_TRABALHO</v>
       </c>
       <c r="G68" t="s">
         <v>66</v>
@@ -4696,8 +4714,8 @@
         <v>165</v>
       </c>
       <c r="F69" t="str">
-        <f t="shared" si="29"/>
-        <v>QUESTIONARIO_SOCIO_Q7</v>
+        <f>A224</f>
+        <v>CH_TRABALHO</v>
       </c>
       <c r="G69" t="s">
         <v>67</v>
@@ -4790,8 +4808,8 @@
         <v>57</v>
       </c>
       <c r="J71" t="str">
-        <f>H75</f>
-        <v>QUESTIONARIO_SOCIO_EST_CIVIL</v>
+        <f>A228</f>
+        <v>EST_CIVIL</v>
       </c>
       <c r="K71" t="s">
         <v>61</v>
@@ -4943,8 +4961,8 @@
         <v>73</v>
       </c>
       <c r="H75" t="str">
-        <f>B102</f>
-        <v>QUESTIONARIO_SOCIO_EST_CIVIL</v>
+        <f>A228</f>
+        <v>EST_CIVIL</v>
       </c>
       <c r="I75" t="s">
         <v>61</v>
@@ -5071,7 +5089,7 @@
       </c>
       <c r="J78" t="str">
         <f>A222</f>
-        <v>QUESTIONARIO_SOCIO_RENDA</v>
+        <v>RENDA</v>
       </c>
       <c r="K78" t="s">
         <v>68</v>
@@ -5096,8 +5114,8 @@
         <v>175</v>
       </c>
       <c r="F79" t="str">
-        <f t="shared" si="29"/>
-        <v>QUESTIONARIO_SOCIO_Q17</v>
+        <f>A225</f>
+        <v>ENSINO_MEDIO</v>
       </c>
       <c r="G79" t="s">
         <v>77</v>
@@ -5110,8 +5128,8 @@
         <v>65</v>
       </c>
       <c r="J79" t="str">
-        <f t="shared" si="33"/>
-        <v>QUESTIONARIO_SOCIO_Q9</v>
+        <f>A223</f>
+        <v>SITUACAO_TRABALHO</v>
       </c>
       <c r="K79" t="s">
         <v>69</v>
@@ -5136,8 +5154,8 @@
         <v>176</v>
       </c>
       <c r="F80" t="str">
-        <f t="shared" si="29"/>
-        <v>QUESTIONARIO_SOCIO_Q18</v>
+        <f>A226</f>
+        <v>TIPO_EM</v>
       </c>
       <c r="G80" t="s">
         <v>78</v>
@@ -5150,8 +5168,8 @@
         <v>66</v>
       </c>
       <c r="J80" t="str">
-        <f t="shared" si="33"/>
-        <v>QUESTIONARIO_SOCIO_Q10</v>
+        <f>A224</f>
+        <v>CH_TRABALHO</v>
       </c>
       <c r="K80" t="s">
         <v>70</v>
@@ -5216,15 +5234,15 @@
         <v>178</v>
       </c>
       <c r="F82" t="str">
-        <f t="shared" si="29"/>
-        <v>QUESTIONARIO_SOCIO_Q20</v>
+        <f>A227</f>
+        <v>HORAS_ESTUDO</v>
       </c>
       <c r="G82" t="s">
         <v>80</v>
       </c>
       <c r="H82" t="str">
         <f>A222</f>
-        <v>QUESTIONARIO_SOCIO_RENDA</v>
+        <v>RENDA</v>
       </c>
       <c r="I82" t="s">
         <v>68</v>
@@ -5263,8 +5281,8 @@
         <v>81</v>
       </c>
       <c r="H83" t="str">
-        <f t="shared" si="36"/>
-        <v>QUESTIONARIO_SOCIO_Q9</v>
+        <f>A223</f>
+        <v>SITUACAO_TRABALHO</v>
       </c>
       <c r="I83" t="s">
         <v>69</v>
@@ -5303,8 +5321,8 @@
         <v>82</v>
       </c>
       <c r="H84" t="str">
-        <f t="shared" si="36"/>
-        <v>QUESTIONARIO_SOCIO_Q10</v>
+        <f>A224</f>
+        <v>CH_TRABALHO</v>
       </c>
       <c r="I84" t="s">
         <v>70</v>
@@ -5369,8 +5387,8 @@
         <v>168</v>
       </c>
       <c r="D86" t="str">
-        <f>B102</f>
-        <v>QUESTIONARIO_SOCIO_EST_CIVIL</v>
+        <f>A228</f>
+        <v>EST_CIVIL</v>
       </c>
       <c r="E86" t="s">
         <v>182</v>
@@ -5430,8 +5448,8 @@
         <v>73</v>
       </c>
       <c r="J87" t="str">
-        <f t="shared" si="33"/>
-        <v>QUESTIONARIO_SOCIO_Q17</v>
+        <f>A225</f>
+        <v>ENSINO_MEDIO</v>
       </c>
       <c r="K87" t="s">
         <v>77</v>
@@ -5470,8 +5488,8 @@
         <v>74</v>
       </c>
       <c r="J88" t="str">
-        <f t="shared" si="33"/>
-        <v>QUESTIONARIO_SOCIO_Q18</v>
+        <f>A226</f>
+        <v>TIPO_EM</v>
       </c>
       <c r="K88" t="s">
         <v>78</v>
@@ -5569,8 +5587,8 @@
         <v>170</v>
       </c>
       <c r="D91" t="str">
-        <f>B107</f>
-        <v>QUESTIONARIO_SOCIO_RENDA</v>
+        <f>A222</f>
+        <v>RENDA</v>
       </c>
       <c r="E91" t="s">
         <v>187</v>
@@ -5583,8 +5601,8 @@
         <v>89</v>
       </c>
       <c r="H91" t="str">
-        <f t="shared" si="36"/>
-        <v>QUESTIONARIO_SOCIO_Q17</v>
+        <f>A225</f>
+        <v>ENSINO_MEDIO</v>
       </c>
       <c r="I91" t="s">
         <v>77</v>
@@ -5623,8 +5641,8 @@
         <v>90</v>
       </c>
       <c r="H92" t="str">
-        <f t="shared" si="36"/>
-        <v>QUESTIONARIO_SOCIO_Q18</v>
+        <f>A226</f>
+        <v>TIPO_EM</v>
       </c>
       <c r="I92" t="s">
         <v>78</v>
@@ -5649,8 +5667,8 @@
         <v>172</v>
       </c>
       <c r="D93" t="str">
-        <f t="shared" si="37"/>
-        <v>QUESTIONARIO_SOCIO_Q9</v>
+        <f>A223</f>
+        <v>SITUACAO_TRABALHO</v>
       </c>
       <c r="E93" t="s">
         <v>189</v>
@@ -5670,8 +5688,8 @@
         <v>79</v>
       </c>
       <c r="J93" t="str">
-        <f t="shared" si="33"/>
-        <v>QUESTIONARIO_SOCIO_Q23</v>
+        <f>A227</f>
+        <v>HORAS_ESTUDO</v>
       </c>
       <c r="K93" t="s">
         <v>83</v>
@@ -5689,8 +5707,8 @@
         <v>173</v>
       </c>
       <c r="D94" t="str">
-        <f t="shared" si="37"/>
-        <v>QUESTIONARIO_SOCIO_Q10</v>
+        <f>A224</f>
+        <v>CH_TRABALHO</v>
       </c>
       <c r="E94" t="s">
         <v>70</v>
@@ -5823,8 +5841,8 @@
         <v>95</v>
       </c>
       <c r="H97" t="str">
-        <f t="shared" si="36"/>
-        <v>QUESTIONARIO_SOCIO_Q23</v>
+        <f>A227</f>
+        <v>HORAS_ESTUDO</v>
       </c>
       <c r="I97" t="s">
         <v>83</v>
@@ -5969,8 +5987,8 @@
         <v>180</v>
       </c>
       <c r="D101" t="str">
-        <f t="shared" si="37"/>
-        <v>QUESTIONARIO_SOCIO_Q17</v>
+        <f>A225</f>
+        <v>ENSINO_MEDIO</v>
       </c>
       <c r="E101" t="s">
         <v>77</v>
@@ -6001,15 +6019,16 @@
       <c r="A102" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="B102" s="8" t="s">
-        <v>497</v>
+      <c r="B102" s="8" t="str">
+        <f>A228</f>
+        <v>EST_CIVIL</v>
       </c>
       <c r="C102" t="s">
         <v>181</v>
       </c>
       <c r="D102" t="str">
-        <f t="shared" si="37"/>
-        <v>QUESTIONARIO_SOCIO_Q18</v>
+        <f>A226</f>
+        <v>TIPO_EM</v>
       </c>
       <c r="E102" t="s">
         <v>78</v>
@@ -6202,7 +6221,7 @@
       </c>
       <c r="B107" s="8" t="str">
         <f>A222</f>
-        <v>QUESTIONARIO_SOCIO_RENDA</v>
+        <v>RENDA</v>
       </c>
       <c r="C107" t="s">
         <v>186</v>
@@ -6281,8 +6300,8 @@
         <v>378</v>
       </c>
       <c r="B109" s="8" t="str">
-        <f t="shared" si="34"/>
-        <v>QUESTIONARIO_SOCIO_Q8</v>
+        <f>A223</f>
+        <v>SITUACAO_TRABALHO</v>
       </c>
       <c r="C109" t="s">
         <v>188</v>
@@ -6321,8 +6340,8 @@
         <v>379</v>
       </c>
       <c r="B110" s="8" t="str">
-        <f t="shared" si="34"/>
-        <v>QUESTIONARIO_SOCIO_Q9</v>
+        <f>A224</f>
+        <v>CH_TRABALHO</v>
       </c>
       <c r="C110" t="s">
         <v>189</v>
@@ -6408,8 +6427,8 @@
         <v>71</v>
       </c>
       <c r="D112" t="str">
-        <f t="shared" si="37"/>
-        <v>QUESTIONARIO_SOCIO_Q28</v>
+        <f>A227</f>
+        <v>HORAS_ESTUDO</v>
       </c>
       <c r="E112" t="s">
         <v>88</v>
@@ -6481,8 +6500,8 @@
         <v>383</v>
       </c>
       <c r="B114" s="8" t="str">
-        <f t="shared" si="34"/>
-        <v>QUESTIONARIO_SOCIO_Q13</v>
+        <f>A225</f>
+        <v>ENSINO_MEDIO</v>
       </c>
       <c r="C114" t="s">
         <v>73</v>
@@ -6521,8 +6540,8 @@
         <v>384</v>
       </c>
       <c r="B115" s="8" t="str">
-        <f t="shared" si="34"/>
-        <v>QUESTIONARIO_SOCIO_Q14</v>
+        <f>A226</f>
+        <v>TIPO_EM</v>
       </c>
       <c r="C115" t="s">
         <v>74</v>
@@ -6865,8 +6884,8 @@
         <v>394</v>
       </c>
       <c r="B125" s="8" t="str">
-        <f t="shared" si="34"/>
-        <v>QUESTIONARIO_SOCIO_Q24</v>
+        <f>A227</f>
+        <v>HORAS_ESTUDO</v>
       </c>
       <c r="C125" t="s">
         <v>84</v>
@@ -8887,7 +8906,37 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" s="13" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
         <v>498</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>503</v>
       </c>
     </row>
   </sheetData>

--- a/rotulos_colunas/rotulos_colunas_todas_bases.xlsx
+++ b/rotulos_colunas/rotulos_colunas_todas_bases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/Meu Drive/Doutorado/Disciplinas/Estatística/Projeto/projeto-enade-estatistica-1/rotulos_colunas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42347C53-AF19-1744-88D3-8B7F4C6563CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB579459-580D-9F49-ABF2-B4EFF187A574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="1920" windowWidth="35500" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1985,10 +1985,10 @@
   <dimension ref="A1:K228"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B217" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J72" sqref="J72"/>
+      <selection pane="bottomRight" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/rotulos_colunas/rotulos_colunas_todas_bases.xlsx
+++ b/rotulos_colunas/rotulos_colunas_todas_bases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/Meu Drive/Doutorado/Disciplinas/Estatística/Projeto/projeto-enade-estatistica-1/rotulos_colunas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB579459-580D-9F49-ABF2-B4EFF187A574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A223512-85E2-3043-AFCE-26188AB3D4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="1920" windowWidth="35500" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1985,10 +1985,10 @@
   <dimension ref="A1:K228"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B217" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A32" sqref="A32"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
